--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ntng2-Lrrc4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ntng2-Lrrc4.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.4964303490308</v>
+        <v>7.6715765</v>
       </c>
       <c r="H2">
-        <v>7.4964303490308</v>
+        <v>15.343153</v>
       </c>
       <c r="I2">
-        <v>0.25339307014171</v>
+        <v>0.2438217746866768</v>
       </c>
       <c r="J2">
-        <v>0.25339307014171</v>
+        <v>0.186760439442944</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.50075962978332</v>
+        <v>2.5411105</v>
       </c>
       <c r="N2">
-        <v>2.50075962978332</v>
+        <v>5.082221</v>
       </c>
       <c r="O2">
-        <v>0.1425525573313492</v>
+        <v>0.1395356071449997</v>
       </c>
       <c r="P2">
-        <v>0.1425525573313492</v>
+        <v>0.1016036911443679</v>
       </c>
       <c r="Q2">
-        <v>18.74677038433871</v>
+        <v>19.49432359570325</v>
       </c>
       <c r="R2">
-        <v>18.74677038433871</v>
+        <v>77.97729438281299</v>
       </c>
       <c r="S2">
-        <v>0.0361218301587427</v>
+        <v>0.03402181936607675</v>
       </c>
       <c r="T2">
-        <v>0.0361218301587427</v>
+        <v>0.01897555000714731</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.4964303490308</v>
+        <v>7.6715765</v>
       </c>
       <c r="H3">
-        <v>7.4964303490308</v>
+        <v>15.343153</v>
       </c>
       <c r="I3">
-        <v>0.25339307014171</v>
+        <v>0.2438217746866768</v>
       </c>
       <c r="J3">
-        <v>0.25339307014171</v>
+        <v>0.186760439442944</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.78113231311706</v>
+        <v>3.190907666666666</v>
       </c>
       <c r="N3">
-        <v>2.78113231311706</v>
+        <v>9.572723</v>
       </c>
       <c r="O3">
-        <v>0.1585348382907312</v>
+        <v>0.1752167954175812</v>
       </c>
       <c r="P3">
-        <v>0.1585348382907312</v>
+        <v>0.1913777443174129</v>
       </c>
       <c r="Q3">
-        <v>20.84856467672096</v>
+        <v>24.47929226926983</v>
       </c>
       <c r="R3">
-        <v>20.84856467672096</v>
+        <v>146.875753615619</v>
       </c>
       <c r="S3">
-        <v>0.0401716293989079</v>
+        <v>0.04272167001362702</v>
       </c>
       <c r="T3">
-        <v>0.0401716293989079</v>
+        <v>0.03574179162831943</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.4964303490308</v>
+        <v>7.6715765</v>
       </c>
       <c r="H4">
-        <v>7.4964303490308</v>
+        <v>15.343153</v>
       </c>
       <c r="I4">
-        <v>0.25339307014171</v>
+        <v>0.2438217746866768</v>
       </c>
       <c r="J4">
-        <v>0.25339307014171</v>
+        <v>0.186760439442944</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.83421139233499</v>
+        <v>4.948958666666666</v>
       </c>
       <c r="N4">
-        <v>4.83421139233499</v>
+        <v>14.846876</v>
       </c>
       <c r="O4">
-        <v>0.2755679468151863</v>
+        <v>0.2717536101987069</v>
       </c>
       <c r="P4">
-        <v>0.2755679468151863</v>
+        <v>0.2968185373211294</v>
       </c>
       <c r="Q4">
-        <v>36.23932899513046</v>
+        <v>37.96631500667133</v>
       </c>
       <c r="R4">
-        <v>36.23932899513046</v>
+        <v>227.797890040028</v>
       </c>
       <c r="S4">
-        <v>0.06982700807614751</v>
+        <v>0.0662594475161601</v>
       </c>
       <c r="T4">
-        <v>0.06982700807614751</v>
+        <v>0.05543396046490602</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.4964303490308</v>
+        <v>7.6715765</v>
       </c>
       <c r="H5">
-        <v>7.4964303490308</v>
+        <v>15.343153</v>
       </c>
       <c r="I5">
-        <v>0.25339307014171</v>
+        <v>0.2438217746866768</v>
       </c>
       <c r="J5">
-        <v>0.25339307014171</v>
+        <v>0.186760439442944</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.88111813767266</v>
+        <v>3.958308666666667</v>
       </c>
       <c r="N5">
-        <v>3.88111813767266</v>
+        <v>11.874926</v>
       </c>
       <c r="O5">
-        <v>0.2212381027113185</v>
+        <v>0.2173557596454965</v>
       </c>
       <c r="P5">
-        <v>0.2212381027113185</v>
+        <v>0.2374033544913186</v>
       </c>
       <c r="Q5">
-        <v>29.09453179542323</v>
+        <v>30.36646774694633</v>
       </c>
       <c r="R5">
-        <v>29.09453179542323</v>
+        <v>182.198806481678</v>
       </c>
       <c r="S5">
-        <v>0.05606020207834797</v>
+        <v>0.05299606705513572</v>
       </c>
       <c r="T5">
-        <v>0.05606020207834797</v>
+        <v>0.04433755481002769</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.4964303490308</v>
+        <v>7.6715765</v>
       </c>
       <c r="H6">
-        <v>7.4964303490308</v>
+        <v>15.343153</v>
       </c>
       <c r="I6">
-        <v>0.25339307014171</v>
+        <v>0.2438217746866768</v>
       </c>
       <c r="J6">
-        <v>0.25339307014171</v>
+        <v>0.186760439442944</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.48870067585057</v>
+        <v>1.499473</v>
       </c>
       <c r="N6">
-        <v>1.48870067585057</v>
+        <v>4.498419</v>
       </c>
       <c r="O6">
-        <v>0.0848614500633931</v>
+        <v>0.08233796816491612</v>
       </c>
       <c r="P6">
-        <v>0.0848614500633931</v>
+        <v>0.08993232972630592</v>
       </c>
       <c r="Q6">
-        <v>11.15994092706888</v>
+        <v>11.5033218291845</v>
       </c>
       <c r="R6">
-        <v>11.15994092706888</v>
+        <v>69.019930975107</v>
       </c>
       <c r="S6">
-        <v>0.02150330336824059</v>
+        <v>0.02007578952206494</v>
       </c>
       <c r="T6">
-        <v>0.02150330336824059</v>
+        <v>0.01679580141981264</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.4964303490308</v>
+        <v>7.6715765</v>
       </c>
       <c r="H7">
-        <v>7.4964303490308</v>
+        <v>15.343153</v>
       </c>
       <c r="I7">
-        <v>0.25339307014171</v>
+        <v>0.2438217746866768</v>
       </c>
       <c r="J7">
-        <v>0.25339307014171</v>
+        <v>0.186760439442944</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.05679807035718</v>
+        <v>2.072439</v>
       </c>
       <c r="N7">
-        <v>2.05679807035718</v>
+        <v>4.144878</v>
       </c>
       <c r="O7">
-        <v>0.1172451047880219</v>
+        <v>0.1138002594282995</v>
       </c>
       <c r="P7">
-        <v>0.1172451047880219</v>
+        <v>0.08286434299946525</v>
       </c>
       <c r="Q7">
-        <v>15.41864347645355</v>
+        <v>15.8988743300835</v>
       </c>
       <c r="R7">
-        <v>15.41864347645355</v>
+        <v>63.595497320334</v>
       </c>
       <c r="S7">
-        <v>0.02970909706132338</v>
+        <v>0.02774698121361221</v>
       </c>
       <c r="T7">
-        <v>0.02970909706132338</v>
+        <v>0.01547578111273097</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.94415952875308</v>
+        <v>3.057640333333333</v>
       </c>
       <c r="H8">
-        <v>2.94415952875308</v>
+        <v>9.172920999999999</v>
       </c>
       <c r="I8">
-        <v>0.09951798219190632</v>
+        <v>0.09717941187536815</v>
       </c>
       <c r="J8">
-        <v>0.09951798219190632</v>
+        <v>0.1116549353927064</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.50075962978332</v>
+        <v>2.5411105</v>
       </c>
       <c r="N8">
-        <v>2.50075962978332</v>
+        <v>5.082221</v>
       </c>
       <c r="O8">
-        <v>0.1425525573313492</v>
+        <v>0.1395356071449997</v>
       </c>
       <c r="P8">
-        <v>0.1425525573313492</v>
+        <v>0.1016036911443679</v>
       </c>
       <c r="Q8">
-        <v>7.362635293147586</v>
+        <v>7.769801956256832</v>
       </c>
       <c r="R8">
-        <v>7.362635293147586</v>
+        <v>46.61881173754099</v>
       </c>
       <c r="S8">
-        <v>0.01418654286191191</v>
+        <v>0.01355998823802348</v>
       </c>
       <c r="T8">
-        <v>0.01418654286191191</v>
+        <v>0.01134455357038489</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.94415952875308</v>
+        <v>3.057640333333333</v>
       </c>
       <c r="H9">
-        <v>2.94415952875308</v>
+        <v>9.172920999999999</v>
       </c>
       <c r="I9">
-        <v>0.09951798219190632</v>
+        <v>0.09717941187536815</v>
       </c>
       <c r="J9">
-        <v>0.09951798219190632</v>
+        <v>0.1116549353927064</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.78113231311706</v>
+        <v>3.190907666666666</v>
       </c>
       <c r="N9">
-        <v>2.78113231311706</v>
+        <v>9.572723</v>
       </c>
       <c r="O9">
-        <v>0.1585348382907312</v>
+        <v>0.1752167954175812</v>
       </c>
       <c r="P9">
-        <v>0.1585348382907312</v>
+        <v>0.1913777443174129</v>
       </c>
       <c r="Q9">
-        <v>8.188097200386688</v>
+        <v>9.756647981542555</v>
       </c>
       <c r="R9">
-        <v>8.188097200386688</v>
+        <v>87.80983183388298</v>
       </c>
       <c r="S9">
-        <v>0.01577706721381373</v>
+        <v>0.01702746512936724</v>
       </c>
       <c r="T9">
-        <v>0.01577706721381373</v>
+        <v>0.02136826967736263</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.94415952875308</v>
+        <v>3.057640333333333</v>
       </c>
       <c r="H10">
-        <v>2.94415952875308</v>
+        <v>9.172920999999999</v>
       </c>
       <c r="I10">
-        <v>0.09951798219190632</v>
+        <v>0.09717941187536815</v>
       </c>
       <c r="J10">
-        <v>0.09951798219190632</v>
+        <v>0.1116549353927064</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.83421139233499</v>
+        <v>4.948958666666666</v>
       </c>
       <c r="N10">
-        <v>4.83421139233499</v>
+        <v>14.846876</v>
       </c>
       <c r="O10">
-        <v>0.2755679468151863</v>
+        <v>0.2717536101987069</v>
       </c>
       <c r="P10">
-        <v>0.2755679468151863</v>
+        <v>0.2968185373211294</v>
       </c>
       <c r="Q10">
-        <v>14.23268953474975</v>
+        <v>15.13213562719955</v>
       </c>
       <c r="R10">
-        <v>14.23268953474975</v>
+        <v>136.189220644796</v>
       </c>
       <c r="S10">
-        <v>0.02742396602381389</v>
+        <v>0.02640885601411838</v>
       </c>
       <c r="T10">
-        <v>0.02742396602381389</v>
+        <v>0.03314125460794833</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.94415952875308</v>
+        <v>3.057640333333333</v>
       </c>
       <c r="H11">
-        <v>2.94415952875308</v>
+        <v>9.172920999999999</v>
       </c>
       <c r="I11">
-        <v>0.09951798219190632</v>
+        <v>0.09717941187536815</v>
       </c>
       <c r="J11">
-        <v>0.09951798219190632</v>
+        <v>0.1116549353927064</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.88111813767266</v>
+        <v>3.958308666666667</v>
       </c>
       <c r="N11">
-        <v>3.88111813767266</v>
+        <v>11.874926</v>
       </c>
       <c r="O11">
-        <v>0.2212381027113185</v>
+        <v>0.2173557596454965</v>
       </c>
       <c r="P11">
-        <v>0.2212381027113185</v>
+        <v>0.2374033544913186</v>
       </c>
       <c r="Q11">
-        <v>11.42663094724537</v>
+        <v>12.10308423098289</v>
       </c>
       <c r="R11">
-        <v>11.42663094724537</v>
+        <v>108.927758078846</v>
       </c>
       <c r="S11">
-        <v>0.02201716956579613</v>
+        <v>0.02112250489007323</v>
       </c>
       <c r="T11">
-        <v>0.02201716956579613</v>
+        <v>0.02650725620773996</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.94415952875308</v>
+        <v>3.057640333333333</v>
       </c>
       <c r="H12">
-        <v>2.94415952875308</v>
+        <v>9.172920999999999</v>
       </c>
       <c r="I12">
-        <v>0.09951798219190632</v>
+        <v>0.09717941187536815</v>
       </c>
       <c r="J12">
-        <v>0.09951798219190632</v>
+        <v>0.1116549353927064</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.48870067585057</v>
+        <v>1.499473</v>
       </c>
       <c r="N12">
-        <v>1.48870067585057</v>
+        <v>4.498419</v>
       </c>
       <c r="O12">
-        <v>0.0848614500633931</v>
+        <v>0.08233796816491612</v>
       </c>
       <c r="P12">
-        <v>0.0848614500633931</v>
+        <v>0.08993232972630592</v>
       </c>
       <c r="Q12">
-        <v>4.382972280266606</v>
+        <v>4.584849123544333</v>
       </c>
       <c r="R12">
-        <v>4.382972280266606</v>
+        <v>41.263642111899</v>
       </c>
       <c r="S12">
-        <v>0.008445240276188102</v>
+        <v>0.008001555321279333</v>
       </c>
       <c r="T12">
-        <v>0.008445240276188102</v>
+        <v>0.01004138846530626</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.94415952875308</v>
+        <v>3.057640333333333</v>
       </c>
       <c r="H13">
-        <v>2.94415952875308</v>
+        <v>9.172920999999999</v>
       </c>
       <c r="I13">
-        <v>0.09951798219190632</v>
+        <v>0.09717941187536815</v>
       </c>
       <c r="J13">
-        <v>0.09951798219190632</v>
+        <v>0.1116549353927064</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.05679807035718</v>
+        <v>2.072439</v>
       </c>
       <c r="N13">
-        <v>2.05679807035718</v>
+        <v>4.144878</v>
       </c>
       <c r="O13">
-        <v>0.1172451047880219</v>
+        <v>0.1138002594282995</v>
       </c>
       <c r="P13">
-        <v>0.1172451047880219</v>
+        <v>0.08286434299946525</v>
       </c>
       <c r="Q13">
-        <v>6.05554163756304</v>
+        <v>6.336773074773</v>
       </c>
       <c r="R13">
-        <v>6.05554163756304</v>
+        <v>38.020638448638</v>
       </c>
       <c r="S13">
-        <v>0.01166799625038255</v>
+        <v>0.01105904228250647</v>
       </c>
       <c r="T13">
-        <v>0.01166799625038255</v>
+        <v>0.009252212863964356</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.81320897631841</v>
+        <v>4.249111</v>
       </c>
       <c r="H14">
-        <v>3.81320897631841</v>
+        <v>12.747333</v>
       </c>
       <c r="I14">
-        <v>0.1288934445614068</v>
+        <v>0.1350473119652369</v>
       </c>
       <c r="J14">
-        <v>0.1288934445614068</v>
+        <v>0.1551635125326289</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.50075962978332</v>
+        <v>2.5411105</v>
       </c>
       <c r="N14">
-        <v>2.50075962978332</v>
+        <v>5.082221</v>
       </c>
       <c r="O14">
-        <v>0.1425525573313492</v>
+        <v>0.1395356071449997</v>
       </c>
       <c r="P14">
-        <v>0.1425525573313492</v>
+        <v>0.1016036911443679</v>
       </c>
       <c r="Q14">
-        <v>9.535919067904461</v>
+        <v>10.7974605777655</v>
       </c>
       <c r="R14">
-        <v>9.535919067904461</v>
+        <v>64.78476346659301</v>
       </c>
       <c r="S14">
-        <v>0.01837409014547502</v>
+        <v>0.0188439086683695</v>
       </c>
       <c r="T14">
-        <v>0.01837409014547502</v>
+        <v>0.01576518560424048</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.81320897631841</v>
+        <v>4.249111</v>
       </c>
       <c r="H15">
-        <v>3.81320897631841</v>
+        <v>12.747333</v>
       </c>
       <c r="I15">
-        <v>0.1288934445614068</v>
+        <v>0.1350473119652369</v>
       </c>
       <c r="J15">
-        <v>0.1288934445614068</v>
+        <v>0.1551635125326289</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.78113231311706</v>
+        <v>3.190907666666666</v>
       </c>
       <c r="N15">
-        <v>2.78113231311706</v>
+        <v>9.572723</v>
       </c>
       <c r="O15">
-        <v>0.1585348382907312</v>
+        <v>0.1752167954175812</v>
       </c>
       <c r="P15">
-        <v>0.1585348382907312</v>
+        <v>0.1913777443174129</v>
       </c>
       <c r="Q15">
-        <v>10.60503870070716</v>
+        <v>13.55852086641767</v>
       </c>
       <c r="R15">
-        <v>10.60503870070716</v>
+        <v>122.026687797759</v>
       </c>
       <c r="S15">
-        <v>0.02043410139027796</v>
+        <v>0.02366255723230717</v>
       </c>
       <c r="T15">
-        <v>0.02043410139027796</v>
+        <v>0.02969484302886115</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.81320897631841</v>
+        <v>4.249111</v>
       </c>
       <c r="H16">
-        <v>3.81320897631841</v>
+        <v>12.747333</v>
       </c>
       <c r="I16">
-        <v>0.1288934445614068</v>
+        <v>0.1350473119652369</v>
       </c>
       <c r="J16">
-        <v>0.1288934445614068</v>
+        <v>0.1551635125326289</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.83421139233499</v>
+        <v>4.948958666666666</v>
       </c>
       <c r="N16">
-        <v>4.83421139233499</v>
+        <v>14.846876</v>
       </c>
       <c r="O16">
-        <v>0.2755679468151863</v>
+        <v>0.2717536101987069</v>
       </c>
       <c r="P16">
-        <v>0.2755679468151863</v>
+        <v>0.2968185373211294</v>
       </c>
       <c r="Q16">
-        <v>18.4338582746725</v>
+        <v>21.02867470907866</v>
       </c>
       <c r="R16">
-        <v>18.4338582746725</v>
+        <v>189.258072381708</v>
       </c>
       <c r="S16">
-        <v>0.03551890187572392</v>
+        <v>0.03669959457418415</v>
       </c>
       <c r="T16">
-        <v>0.03551890187572392</v>
+        <v>0.04605540683554365</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.81320897631841</v>
+        <v>4.249111</v>
       </c>
       <c r="H17">
-        <v>3.81320897631841</v>
+        <v>12.747333</v>
       </c>
       <c r="I17">
-        <v>0.1288934445614068</v>
+        <v>0.1350473119652369</v>
       </c>
       <c r="J17">
-        <v>0.1288934445614068</v>
+        <v>0.1551635125326289</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.88111813767266</v>
+        <v>3.958308666666667</v>
       </c>
       <c r="N17">
-        <v>3.88111813767266</v>
+        <v>11.874926</v>
       </c>
       <c r="O17">
-        <v>0.2212381027113185</v>
+        <v>0.2173557596454965</v>
       </c>
       <c r="P17">
-        <v>0.2212381027113185</v>
+        <v>0.2374033544913186</v>
       </c>
       <c r="Q17">
-        <v>14.79951452072558</v>
+        <v>16.81929289692867</v>
       </c>
       <c r="R17">
-        <v>14.79951452072558</v>
+        <v>151.373636072358</v>
       </c>
       <c r="S17">
-        <v>0.02851614112669216</v>
+        <v>0.02935331108028641</v>
       </c>
       <c r="T17">
-        <v>0.02851614112669216</v>
+        <v>0.03683633836990186</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.81320897631841</v>
+        <v>4.249111</v>
       </c>
       <c r="H18">
-        <v>3.81320897631841</v>
+        <v>12.747333</v>
       </c>
       <c r="I18">
-        <v>0.1288934445614068</v>
+        <v>0.1350473119652369</v>
       </c>
       <c r="J18">
-        <v>0.1288934445614068</v>
+        <v>0.1551635125326289</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.48870067585057</v>
+        <v>1.499473</v>
       </c>
       <c r="N18">
-        <v>1.48870067585057</v>
+        <v>4.498419</v>
       </c>
       <c r="O18">
-        <v>0.0848614500633931</v>
+        <v>0.08233796816491612</v>
       </c>
       <c r="P18">
-        <v>0.0848614500633931</v>
+        <v>0.08993232972630592</v>
       </c>
       <c r="Q18">
-        <v>5.676726780204677</v>
+        <v>6.371427218503</v>
       </c>
       <c r="R18">
-        <v>5.676726780204677</v>
+        <v>57.342844966527</v>
       </c>
       <c r="S18">
-        <v>0.01093808460914655</v>
+        <v>0.01111952127335117</v>
       </c>
       <c r="T18">
-        <v>0.01093808460914655</v>
+        <v>0.01395421617057618</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.81320897631841</v>
+        <v>4.249111</v>
       </c>
       <c r="H19">
-        <v>3.81320897631841</v>
+        <v>12.747333</v>
       </c>
       <c r="I19">
-        <v>0.1288934445614068</v>
+        <v>0.1350473119652369</v>
       </c>
       <c r="J19">
-        <v>0.1288934445614068</v>
+        <v>0.1551635125326289</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.05679807035718</v>
+        <v>2.072439</v>
       </c>
       <c r="N19">
-        <v>2.05679807035718</v>
+        <v>4.144878</v>
       </c>
       <c r="O19">
-        <v>0.1172451047880219</v>
+        <v>0.1138002594282995</v>
       </c>
       <c r="P19">
-        <v>0.1172451047880219</v>
+        <v>0.08286434299946525</v>
       </c>
       <c r="Q19">
-        <v>7.843000864360384</v>
+        <v>8.806023351729001</v>
       </c>
       <c r="R19">
-        <v>7.843000864360384</v>
+        <v>52.83614011037401</v>
       </c>
       <c r="S19">
-        <v>0.01511212541409124</v>
+        <v>0.01536841913673846</v>
       </c>
       <c r="T19">
-        <v>0.01511212541409124</v>
+        <v>0.01285752252350559</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.51930955294621</v>
+        <v>4.734553</v>
       </c>
       <c r="H20">
-        <v>4.51930955294621</v>
+        <v>14.203659</v>
       </c>
       <c r="I20">
-        <v>0.152760936769039</v>
+        <v>0.1504758656591809</v>
       </c>
       <c r="J20">
-        <v>0.152760936769039</v>
+        <v>0.1728902525144426</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.50075962978332</v>
+        <v>2.5411105</v>
       </c>
       <c r="N20">
-        <v>2.50075962978332</v>
+        <v>5.082221</v>
       </c>
       <c r="O20">
-        <v>0.1425525573313492</v>
+        <v>0.1395356071449997</v>
       </c>
       <c r="P20">
-        <v>0.1425525573313492</v>
+        <v>0.1016036911443679</v>
       </c>
       <c r="Q20">
-        <v>11.30170688450199</v>
+        <v>12.0310223411065</v>
       </c>
       <c r="R20">
-        <v>11.30170688450199</v>
+        <v>72.186134046639</v>
       </c>
       <c r="S20">
-        <v>0.02177646219675904</v>
+        <v>0.02099674127542322</v>
       </c>
       <c r="T20">
-        <v>0.02177646219675904</v>
+        <v>0.01756628781834919</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.51930955294621</v>
+        <v>4.734553</v>
       </c>
       <c r="H21">
-        <v>4.51930955294621</v>
+        <v>14.203659</v>
       </c>
       <c r="I21">
-        <v>0.152760936769039</v>
+        <v>0.1504758656591809</v>
       </c>
       <c r="J21">
-        <v>0.152760936769039</v>
+        <v>0.1728902525144426</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.78113231311706</v>
+        <v>3.190907666666666</v>
       </c>
       <c r="N21">
-        <v>2.78113231311706</v>
+        <v>9.572723</v>
       </c>
       <c r="O21">
-        <v>0.1585348382907312</v>
+        <v>0.1752167954175812</v>
       </c>
       <c r="P21">
-        <v>0.1585348382907312</v>
+        <v>0.1913777443174129</v>
       </c>
       <c r="Q21">
-        <v>12.56879783067732</v>
+        <v>15.10752146593967</v>
       </c>
       <c r="R21">
-        <v>12.56879783067732</v>
+        <v>135.967693193457</v>
       </c>
       <c r="S21">
-        <v>0.02421793040782021</v>
+        <v>0.02636589896848814</v>
       </c>
       <c r="T21">
-        <v>0.02421793040782021</v>
+        <v>0.03308734654068195</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.51930955294621</v>
+        <v>4.734553</v>
       </c>
       <c r="H22">
-        <v>4.51930955294621</v>
+        <v>14.203659</v>
       </c>
       <c r="I22">
-        <v>0.152760936769039</v>
+        <v>0.1504758656591809</v>
       </c>
       <c r="J22">
-        <v>0.152760936769039</v>
+        <v>0.1728902525144426</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.83421139233499</v>
+        <v>4.948958666666666</v>
       </c>
       <c r="N22">
-        <v>4.83421139233499</v>
+        <v>14.846876</v>
       </c>
       <c r="O22">
-        <v>0.2755679468151863</v>
+        <v>0.2717536101987069</v>
       </c>
       <c r="P22">
-        <v>0.2755679468151863</v>
+        <v>0.2968185373211294</v>
       </c>
       <c r="Q22">
-        <v>21.84729772634092</v>
+        <v>23.43110710214266</v>
       </c>
       <c r="R22">
-        <v>21.84729772634092</v>
+        <v>210.879963919284</v>
       </c>
       <c r="S22">
-        <v>0.04209601769900858</v>
+        <v>0.04089235974065804</v>
       </c>
       <c r="T22">
-        <v>0.04209601769900858</v>
+        <v>0.05131703186841757</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.51930955294621</v>
+        <v>4.734553</v>
       </c>
       <c r="H23">
-        <v>4.51930955294621</v>
+        <v>14.203659</v>
       </c>
       <c r="I23">
-        <v>0.152760936769039</v>
+        <v>0.1504758656591809</v>
       </c>
       <c r="J23">
-        <v>0.152760936769039</v>
+        <v>0.1728902525144426</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.88111813767266</v>
+        <v>3.958308666666667</v>
       </c>
       <c r="N23">
-        <v>3.88111813767266</v>
+        <v>11.874926</v>
       </c>
       <c r="O23">
-        <v>0.2212381027113185</v>
+        <v>0.2173557596454965</v>
       </c>
       <c r="P23">
-        <v>0.2212381027113185</v>
+        <v>0.2374033544913186</v>
       </c>
       <c r="Q23">
-        <v>17.53997427569686</v>
+        <v>18.74082217269267</v>
       </c>
       <c r="R23">
-        <v>17.53997427569686</v>
+        <v>168.667399554234</v>
       </c>
       <c r="S23">
-        <v>0.03379653981918589</v>
+        <v>0.03270679608866495</v>
       </c>
       <c r="T23">
-        <v>0.03379653981918589</v>
+        <v>0.0410447259057798</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.51930955294621</v>
+        <v>4.734553</v>
       </c>
       <c r="H24">
-        <v>4.51930955294621</v>
+        <v>14.203659</v>
       </c>
       <c r="I24">
-        <v>0.152760936769039</v>
+        <v>0.1504758656591809</v>
       </c>
       <c r="J24">
-        <v>0.152760936769039</v>
+        <v>0.1728902525144426</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.48870067585057</v>
+        <v>1.499473</v>
       </c>
       <c r="N24">
-        <v>1.48870067585057</v>
+        <v>4.498419</v>
       </c>
       <c r="O24">
-        <v>0.0848614500633931</v>
+        <v>0.08233796816491612</v>
       </c>
       <c r="P24">
-        <v>0.0848614500633931</v>
+        <v>0.08993232972630592</v>
       </c>
       <c r="Q24">
-        <v>6.727899185848961</v>
+        <v>7.099334390569</v>
       </c>
       <c r="R24">
-        <v>6.727899185848961</v>
+        <v>63.89400951512101</v>
       </c>
       <c r="S24">
-        <v>0.01296351460726296</v>
+        <v>0.01238987703623384</v>
       </c>
       <c r="T24">
-        <v>0.01296351460726296</v>
+        <v>0.01554842319559314</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.51930955294621</v>
+        <v>4.734553</v>
       </c>
       <c r="H25">
-        <v>4.51930955294621</v>
+        <v>14.203659</v>
       </c>
       <c r="I25">
-        <v>0.152760936769039</v>
+        <v>0.1504758656591809</v>
       </c>
       <c r="J25">
-        <v>0.152760936769039</v>
+        <v>0.1728902525144426</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.05679807035718</v>
+        <v>2.072439</v>
       </c>
       <c r="N25">
-        <v>2.05679807035718</v>
+        <v>4.144878</v>
       </c>
       <c r="O25">
-        <v>0.1172451047880219</v>
+        <v>0.1138002594282995</v>
       </c>
       <c r="P25">
-        <v>0.1172451047880219</v>
+        <v>0.08286434299946525</v>
       </c>
       <c r="Q25">
-        <v>9.295307167846536</v>
+        <v>9.812072284767</v>
       </c>
       <c r="R25">
-        <v>9.295307167846536</v>
+        <v>58.872433708602</v>
       </c>
       <c r="S25">
-        <v>0.01791047203900237</v>
+        <v>0.01712419254971274</v>
       </c>
       <c r="T25">
-        <v>0.01791047203900237</v>
+        <v>0.01432643718562093</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.08888932356783</v>
+        <v>7.185148666666667</v>
       </c>
       <c r="H26">
-        <v>7.08888932356783</v>
+        <v>21.555446</v>
       </c>
       <c r="I26">
-        <v>0.2396174373614876</v>
+        <v>0.2283618887583636</v>
       </c>
       <c r="J26">
-        <v>0.2396174373614876</v>
+        <v>0.2623779198023151</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.50075962978332</v>
+        <v>2.5411105</v>
       </c>
       <c r="N26">
-        <v>2.50075962978332</v>
+        <v>5.082221</v>
       </c>
       <c r="O26">
-        <v>0.1425525573313492</v>
+        <v>0.1395356071449997</v>
       </c>
       <c r="P26">
-        <v>0.1425525573313492</v>
+        <v>0.1016036911443679</v>
       </c>
       <c r="Q26">
-        <v>17.72760824038042</v>
+        <v>18.25825672092767</v>
       </c>
       <c r="R26">
-        <v>17.72760824038042</v>
+        <v>109.549540325566</v>
       </c>
       <c r="S26">
-        <v>0.03415807847706443</v>
+        <v>0.03186461479667713</v>
       </c>
       <c r="T26">
-        <v>0.03415807847706443</v>
+        <v>0.02665856512669615</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>7.08888932356783</v>
+        <v>7.185148666666667</v>
       </c>
       <c r="H27">
-        <v>7.08888932356783</v>
+        <v>21.555446</v>
       </c>
       <c r="I27">
-        <v>0.2396174373614876</v>
+        <v>0.2283618887583636</v>
       </c>
       <c r="J27">
-        <v>0.2396174373614876</v>
+        <v>0.2623779198023151</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.78113231311706</v>
+        <v>3.190907666666666</v>
       </c>
       <c r="N27">
-        <v>2.78113231311706</v>
+        <v>9.572723</v>
       </c>
       <c r="O27">
-        <v>0.1585348382907312</v>
+        <v>0.1752167954175812</v>
       </c>
       <c r="P27">
-        <v>0.1585348382907312</v>
+        <v>0.1913777443174129</v>
       </c>
       <c r="Q27">
-        <v>19.71513916188503</v>
+        <v>22.92714596660644</v>
       </c>
       <c r="R27">
-        <v>19.71513916188503</v>
+        <v>206.344313699458</v>
       </c>
       <c r="S27">
-        <v>0.03798771168374285</v>
+        <v>0.04001283834374662</v>
       </c>
       <c r="T27">
-        <v>0.03798771168374285</v>
+        <v>0.05021329445046214</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>7.08888932356783</v>
+        <v>7.185148666666667</v>
       </c>
       <c r="H28">
-        <v>7.08888932356783</v>
+        <v>21.555446</v>
       </c>
       <c r="I28">
-        <v>0.2396174373614876</v>
+        <v>0.2283618887583636</v>
       </c>
       <c r="J28">
-        <v>0.2396174373614876</v>
+        <v>0.2623779198023151</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>4.83421139233499</v>
+        <v>4.948958666666666</v>
       </c>
       <c r="N28">
-        <v>4.83421139233499</v>
+        <v>14.846876</v>
       </c>
       <c r="O28">
-        <v>0.2755679468151863</v>
+        <v>0.2717536101987069</v>
       </c>
       <c r="P28">
-        <v>0.2755679468151863</v>
+        <v>0.2968185373211294</v>
       </c>
       <c r="Q28">
-        <v>34.26918952699349</v>
+        <v>35.55900376518844</v>
       </c>
       <c r="R28">
-        <v>34.26918952699349</v>
+        <v>320.031033886696</v>
       </c>
       <c r="S28">
-        <v>0.06603088523482165</v>
+        <v>0.0620581677018808</v>
       </c>
       <c r="T28">
-        <v>0.06603088523482165</v>
+        <v>0.07787863038108378</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>7.08888932356783</v>
+        <v>7.185148666666667</v>
       </c>
       <c r="H29">
-        <v>7.08888932356783</v>
+        <v>21.555446</v>
       </c>
       <c r="I29">
-        <v>0.2396174373614876</v>
+        <v>0.2283618887583636</v>
       </c>
       <c r="J29">
-        <v>0.2396174373614876</v>
+        <v>0.2623779198023151</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.88111813767266</v>
+        <v>3.958308666666667</v>
       </c>
       <c r="N29">
-        <v>3.88111813767266</v>
+        <v>11.874926</v>
       </c>
       <c r="O29">
-        <v>0.2212381027113185</v>
+        <v>0.2173557596454965</v>
       </c>
       <c r="P29">
-        <v>0.2212381027113185</v>
+        <v>0.2374033544913186</v>
       </c>
       <c r="Q29">
-        <v>27.51281692965318</v>
+        <v>28.44103623855511</v>
       </c>
       <c r="R29">
-        <v>27.51281692965318</v>
+        <v>255.969326146996</v>
       </c>
       <c r="S29">
-        <v>0.05301250721840372</v>
+        <v>0.04963577180515448</v>
       </c>
       <c r="T29">
-        <v>0.05301250721840372</v>
+        <v>0.06228939830552379</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>7.08888932356783</v>
+        <v>7.185148666666667</v>
       </c>
       <c r="H30">
-        <v>7.08888932356783</v>
+        <v>21.555446</v>
       </c>
       <c r="I30">
-        <v>0.2396174373614876</v>
+        <v>0.2283618887583636</v>
       </c>
       <c r="J30">
-        <v>0.2396174373614876</v>
+        <v>0.2623779198023151</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.48870067585057</v>
+        <v>1.499473</v>
       </c>
       <c r="N30">
-        <v>1.48870067585057</v>
+        <v>4.498419</v>
       </c>
       <c r="O30">
-        <v>0.0848614500633931</v>
+        <v>0.08233796816491612</v>
       </c>
       <c r="P30">
-        <v>0.0848614500633931</v>
+        <v>0.08993232972630592</v>
       </c>
       <c r="Q30">
-        <v>10.55323432702532</v>
+        <v>10.77393642665267</v>
       </c>
       <c r="R30">
-        <v>10.55323432702532</v>
+        <v>96.965427839874</v>
       </c>
       <c r="S30">
-        <v>0.02033428319497011</v>
+        <v>0.01880285392666626</v>
       </c>
       <c r="T30">
-        <v>0.02033428319497011</v>
+        <v>0.02359625759656405</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>7.08888932356783</v>
+        <v>7.185148666666667</v>
       </c>
       <c r="H31">
-        <v>7.08888932356783</v>
+        <v>21.555446</v>
       </c>
       <c r="I31">
-        <v>0.2396174373614876</v>
+        <v>0.2283618887583636</v>
       </c>
       <c r="J31">
-        <v>0.2396174373614876</v>
+        <v>0.2623779198023151</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.05679807035718</v>
+        <v>2.072439</v>
       </c>
       <c r="N31">
-        <v>2.05679807035718</v>
+        <v>4.144878</v>
       </c>
       <c r="O31">
-        <v>0.1172451047880219</v>
+        <v>0.1138002594282995</v>
       </c>
       <c r="P31">
-        <v>0.1172451047880219</v>
+        <v>0.08286434299946525</v>
       </c>
       <c r="Q31">
-        <v>14.58041388168993</v>
+        <v>14.890782317598</v>
       </c>
       <c r="R31">
-        <v>14.58041388168993</v>
+        <v>89.344693905588</v>
       </c>
       <c r="S31">
-        <v>0.02809397155248489</v>
+        <v>0.02598764218423825</v>
       </c>
       <c r="T31">
-        <v>0.02809397155248489</v>
+        <v>0.02174177394198523</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>3.72219865185941</v>
+        <v>4.56584</v>
       </c>
       <c r="H32">
-        <v>3.72219865185941</v>
+        <v>9.131679999999999</v>
       </c>
       <c r="I32">
-        <v>0.1258171289744501</v>
+        <v>0.1451137470551739</v>
       </c>
       <c r="J32">
-        <v>0.1258171289744501</v>
+        <v>0.1111529403149629</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.50075962978332</v>
+        <v>2.5411105</v>
       </c>
       <c r="N32">
-        <v>2.50075962978332</v>
+        <v>5.082221</v>
       </c>
       <c r="O32">
-        <v>0.1425525573313492</v>
+        <v>0.1395356071449997</v>
       </c>
       <c r="P32">
-        <v>0.1425525573313492</v>
+        <v>0.1016036911443679</v>
       </c>
       <c r="Q32">
-        <v>9.308324122603912</v>
+        <v>11.60230396532</v>
       </c>
       <c r="R32">
-        <v>9.308324122603912</v>
+        <v>46.40921586128</v>
       </c>
       <c r="S32">
-        <v>0.01793555349139605</v>
+        <v>0.02024853480042959</v>
       </c>
       <c r="T32">
-        <v>0.01793555349139605</v>
+        <v>0.01129354901754984</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3.72219865185941</v>
+        <v>4.56584</v>
       </c>
       <c r="H33">
-        <v>3.72219865185941</v>
+        <v>9.131679999999999</v>
       </c>
       <c r="I33">
-        <v>0.1258171289744501</v>
+        <v>0.1451137470551739</v>
       </c>
       <c r="J33">
-        <v>0.1258171289744501</v>
+        <v>0.1111529403149629</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>2.78113231311706</v>
+        <v>3.190907666666666</v>
       </c>
       <c r="N33">
-        <v>2.78113231311706</v>
+        <v>9.572723</v>
       </c>
       <c r="O33">
-        <v>0.1585348382907312</v>
+        <v>0.1752167954175812</v>
       </c>
       <c r="P33">
-        <v>0.1585348382907312</v>
+        <v>0.1913777443174129</v>
       </c>
       <c r="Q33">
-        <v>10.35192694652696</v>
+        <v>14.56917386077333</v>
       </c>
       <c r="R33">
-        <v>10.35192694652696</v>
+        <v>87.41504316464</v>
       </c>
       <c r="S33">
-        <v>0.01994639819616851</v>
+        <v>0.02542636573004503</v>
       </c>
       <c r="T33">
-        <v>0.01994639819616851</v>
+        <v>0.02127219899172562</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3.72219865185941</v>
+        <v>4.56584</v>
       </c>
       <c r="H34">
-        <v>3.72219865185941</v>
+        <v>9.131679999999999</v>
       </c>
       <c r="I34">
-        <v>0.1258171289744501</v>
+        <v>0.1451137470551739</v>
       </c>
       <c r="J34">
-        <v>0.1258171289744501</v>
+        <v>0.1111529403149629</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>4.83421139233499</v>
+        <v>4.948958666666666</v>
       </c>
       <c r="N34">
-        <v>4.83421139233499</v>
+        <v>14.846876</v>
       </c>
       <c r="O34">
-        <v>0.2755679468151863</v>
+        <v>0.2717536101987069</v>
       </c>
       <c r="P34">
-        <v>0.2755679468151863</v>
+        <v>0.2968185373211294</v>
       </c>
       <c r="Q34">
-        <v>17.9938951273527</v>
+        <v>22.59615343861333</v>
       </c>
       <c r="R34">
-        <v>17.9938951273527</v>
+        <v>135.57692063168</v>
       </c>
       <c r="S34">
-        <v>0.03467116790567069</v>
+        <v>0.03943518465170548</v>
       </c>
       <c r="T34">
-        <v>0.03467116790567069</v>
+        <v>0.03299225316323007</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3.72219865185941</v>
+        <v>4.56584</v>
       </c>
       <c r="H35">
-        <v>3.72219865185941</v>
+        <v>9.131679999999999</v>
       </c>
       <c r="I35">
-        <v>0.1258171289744501</v>
+        <v>0.1451137470551739</v>
       </c>
       <c r="J35">
-        <v>0.1258171289744501</v>
+        <v>0.1111529403149629</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>3.88111813767266</v>
+        <v>3.958308666666667</v>
       </c>
       <c r="N35">
-        <v>3.88111813767266</v>
+        <v>11.874926</v>
       </c>
       <c r="O35">
-        <v>0.2212381027113185</v>
+        <v>0.2173557596454965</v>
       </c>
       <c r="P35">
-        <v>0.2212381027113185</v>
+        <v>0.2374033544913186</v>
       </c>
       <c r="Q35">
-        <v>14.44629269975228</v>
+        <v>18.07300404261333</v>
       </c>
       <c r="R35">
-        <v>14.44629269975228</v>
+        <v>108.43802425568</v>
       </c>
       <c r="S35">
-        <v>0.02783554290289259</v>
+        <v>0.03154130872618175</v>
       </c>
       <c r="T35">
-        <v>0.02783554290289259</v>
+        <v>0.02638808089234551</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3.72219865185941</v>
+        <v>4.56584</v>
       </c>
       <c r="H36">
-        <v>3.72219865185941</v>
+        <v>9.131679999999999</v>
       </c>
       <c r="I36">
-        <v>0.1258171289744501</v>
+        <v>0.1451137470551739</v>
       </c>
       <c r="J36">
-        <v>0.1258171289744501</v>
+        <v>0.1111529403149629</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.48870067585057</v>
+        <v>1.499473</v>
       </c>
       <c r="N36">
-        <v>1.48870067585057</v>
+        <v>4.498419</v>
       </c>
       <c r="O36">
-        <v>0.0848614500633931</v>
+        <v>0.08233796816491612</v>
       </c>
       <c r="P36">
-        <v>0.0848614500633931</v>
+        <v>0.08993232972630592</v>
       </c>
       <c r="Q36">
-        <v>5.541239648673185</v>
+        <v>6.846353802319999</v>
       </c>
       <c r="R36">
-        <v>5.541239648673185</v>
+        <v>41.07812281392</v>
       </c>
       <c r="S36">
-        <v>0.01067702400758478</v>
+        <v>0.0119483710853206</v>
       </c>
       <c r="T36">
-        <v>0.01067702400758478</v>
+        <v>0.009996242878453642</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3.72219865185941</v>
+        <v>4.56584</v>
       </c>
       <c r="H37">
-        <v>3.72219865185941</v>
+        <v>9.131679999999999</v>
       </c>
       <c r="I37">
-        <v>0.1258171289744501</v>
+        <v>0.1451137470551739</v>
       </c>
       <c r="J37">
-        <v>0.1258171289744501</v>
+        <v>0.1111529403149629</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2.05679807035718</v>
+        <v>2.072439</v>
       </c>
       <c r="N37">
-        <v>2.05679807035718</v>
+        <v>4.144878</v>
       </c>
       <c r="O37">
-        <v>0.1172451047880219</v>
+        <v>0.1138002594282995</v>
       </c>
       <c r="P37">
-        <v>0.1172451047880219</v>
+        <v>0.08286434299946525</v>
       </c>
       <c r="Q37">
-        <v>7.655811004630532</v>
+        <v>9.462424883760001</v>
       </c>
       <c r="R37">
-        <v>7.655811004630532</v>
+        <v>37.84969953504</v>
       </c>
       <c r="S37">
-        <v>0.01475144247073747</v>
+        <v>0.01651398206149143</v>
       </c>
       <c r="T37">
-        <v>0.01475144247073747</v>
+        <v>0.009210615371658171</v>
       </c>
     </row>
   </sheetData>
